--- a/Projects/Fresu/BLDC Motor Controller/Released/rev01/rev01_1/Manufacturing Files/BOM/BOM_DF_ESC_REV01_1.xlsx
+++ b/Projects/Fresu/BLDC Motor Controller/Released/rev01/rev01_1/Manufacturing Files/BOM/BOM_DF_ESC_REV01_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Will\BLDC_Motor_Controller\Projects\Fresu\BLDC Motor Controller\Released\rev01\rev01_1\Manufacturing Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6277EB-452D-4422-8321-6A1B0DC1C0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27656F42-405B-4C96-BE9A-A92606CC3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projects/Fresu/BLDC Motor Controller/Released/rev01/rev01_1/Manufacturing Files/BOM/BOM_DF_ESC_REV01_1.xlsx
+++ b/Projects/Fresu/BLDC Motor Controller/Released/rev01/rev01_1/Manufacturing Files/BOM/BOM_DF_ESC_REV01_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Will\BLDC_Motor_Controller\Projects\Fresu\BLDC Motor Controller\Released\rev01\rev01_1\Manufacturing Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27656F42-405B-4C96-BE9A-A92606CC3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7A993B-7222-492B-9F89-59306BBD3B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_DF_ESC_REV01_1" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>100nF 0603 100V ±10%</t>
   </si>
   <si>
-    <t>C10, C11, C14, C15, C17, C19, C21, C22, C54, C55, C56, C57, C8, C9</t>
-  </si>
-  <si>
     <t>CC0603KRX7R6BB104</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
       </rPr>
       <t xml:space="preserve"> The total price of the board with assembled components does not include the "7461084" press-fit terminals and their installation.</t>
     </r>
+  </si>
+  <si>
+    <t>C10, C11, C14, C17, C19, C21, C22, C54, C55, C56, C57, C8, C9</t>
   </si>
 </sst>
 </file>
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,15 +2087,15 @@
         <v>21</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>23</v>
@@ -2104,13 +2104,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>27</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -2132,13 +2132,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>27</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -2160,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>27</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
@@ -2188,13 +2188,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>27</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -2216,13 +2216,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>27</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>23</v>
@@ -2244,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>27</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -2272,13 +2272,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>27</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -2328,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>27</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>23</v>
@@ -2356,13 +2356,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>27</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>23</v>
@@ -2384,13 +2384,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>27</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -2412,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>27</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
@@ -2440,13 +2440,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>27</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
@@ -2468,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>27</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -2496,13 +2496,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>27</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>23</v>
@@ -2524,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>27</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>23</v>
@@ -2552,13 +2552,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>27</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>23</v>
@@ -2580,13 +2580,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>27</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>23</v>
@@ -2608,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>27</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>23</v>
@@ -2636,13 +2636,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>27</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>23</v>
@@ -2664,13 +2664,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>27</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>23</v>
@@ -2692,13 +2692,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>27</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>23</v>
@@ -2748,13 +2748,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>27</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>23</v>
@@ -2776,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>27</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>23</v>
@@ -2860,13 +2860,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>27</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>23</v>
@@ -2888,13 +2888,13 @@
         <v>2</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>27</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>23</v>
@@ -2916,13 +2916,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>27</v>
@@ -2935,22 +2935,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>27</v>
@@ -2963,22 +2963,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C41" s="5">
         <v>4</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>27</v>
@@ -2991,22 +2991,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C42" s="5">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>27</v>
@@ -3019,22 +3019,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>27</v>
@@ -3047,22 +3047,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>27</v>
@@ -3075,22 +3075,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>27</v>
@@ -3103,22 +3103,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>27</v>
@@ -3131,22 +3131,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>27</v>
@@ -3159,25 +3159,25 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3187,22 +3187,22 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>27</v>
@@ -3215,22 +3215,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C50" s="5">
         <v>5</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>27</v>
@@ -3243,22 +3243,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>27</v>
@@ -3271,22 +3271,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>27</v>
@@ -3299,25 +3299,25 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="G53" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -3327,22 +3327,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="F54" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>27</v>
@@ -3355,22 +3355,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>27</v>
@@ -3383,22 +3383,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>27</v>
@@ -3411,84 +3411,84 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="C58" s="5">
         <v>2</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="G58" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>27</v>
@@ -3501,22 +3501,22 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C60" s="5">
         <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>27</v>
@@ -3529,22 +3529,22 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="F61" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>27</v>
@@ -3557,22 +3557,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>27</v>
@@ -3585,22 +3585,22 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>27</v>
@@ -3613,22 +3613,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="F64" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>27</v>
@@ -3641,22 +3641,22 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>27</v>
@@ -3669,22 +3669,22 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="F66" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>27</v>
@@ -3697,22 +3697,22 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="F67" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>27</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C68" s="5">
         <v>3</v>
@@ -3737,13 +3737,13 @@
         <v>7461084</v>
       </c>
       <c r="E68" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="G68" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -3753,22 +3753,22 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="F69" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>27</v>
@@ -3781,22 +3781,22 @@
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A73" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
